--- a/ExamReport/bin/Debug/config/gk_cj.xlsx
+++ b/ExamReport/bin/Debug/config/gk_cj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>城区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,11 +531,21 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
